--- a/Design/Testing/User Test Document.xlsx
+++ b/Design/Testing/User Test Document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhodr\Desktop\MMP\Design\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F84DC61-A1E3-48E6-A23F-B87B47514D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BE8705-87C8-42F1-A0DC-C10A5365E1FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>Login Page</t>
   </si>
   <si>
-    <t>Desing</t>
-  </si>
-  <si>
     <t>Usability</t>
   </si>
   <si>
@@ -57,7 +54,22 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Overwall</t>
+    <t>Overall  Score</t>
+  </si>
+  <si>
+    <t>Overall thoughts</t>
+  </si>
+  <si>
+    <t>Final thoughts</t>
+  </si>
+  <si>
+    <t>Leave blank</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Overall</t>
   </si>
 </sst>
 </file>
@@ -133,11 +145,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,178 +464,216 @@
     <col min="3" max="3" width="91.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
